--- a/biology/Écologie/Prothioconazole/Prothioconazole.xlsx
+++ b/biology/Écologie/Prothioconazole/Prothioconazole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le prothioconazole est un fongicide appartenant au nouveau groupe des triazolinethiones, famille des triazoles.
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prothioconazole agit contre les champignons sensibles par inhibition de la déméthylation en position 14 du lanostérol ou du 24-méthylène dihydroano-stérol[2], tous deux précurseurs de stérols dans les champignons : il agit en perturbant la biosynthèse de l'ergostérol, précurseur de la vitamine D2, composant important des parois cellulaires fongiques[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prothioconazole agit contre les champignons sensibles par inhibition de la déméthylation en position 14 du lanostérol ou du 24-méthylène dihydroano-stérol, tous deux précurseurs de stérols dans les champignons : il agit en perturbant la biosynthèse de l'ergostérol, précurseur de la vitamine D2, composant important des parois cellulaires fongiques.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Synthèse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prothioconazole peut être obtenu en faisant réagir du chlorure de p-chlorobenzyle avec de la chlorométhyl-1-chloro-cyclopropylcétone et du 1,2,4-triazole et en faisant réagir le produit intermédiaire avec du n-butyllithium et du soufre élémentaire[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prothioconazole peut être obtenu en faisant réagir du chlorure de p-chlorobenzyle avec de la chlorométhyl-1-chloro-cyclopropylcétone et du 1,2,4-triazole et en faisant réagir le produit intermédiaire avec du n-butyllithium et du soufre élémentaire.
 </t>
         </is>
       </c>
@@ -576,8 +592,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Effet cancérogène
-Aucun effet cancérogène n’a été mis en évidence par des tests sur le rat ou la souris[5].
+          <t>Effet cancérogène</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aucun effet cancérogène n’a été mis en évidence par des tests sur le rat ou la souris.
 </t>
         </is>
       </c>
